--- a/0_Report/__schema_table/test_cases.xlsx
+++ b/0_Report/__schema_table/test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bachelor\Bachelor\0_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bachelor\Bachelor\0_Report\__schema_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="40">
   <si>
     <t>Power Consumption</t>
   </si>
@@ -57,63 +57,18 @@
     <t>Advertising Interval</t>
   </si>
   <si>
-    <t>Conn., Int. On, Drivers Off</t>
-  </si>
-  <si>
-    <t>Conn., Int. On, Drivers On</t>
-  </si>
-  <si>
-    <t>Adv., Int. On, Drivers Off</t>
-  </si>
-  <si>
     <t>BLE Scanning</t>
   </si>
   <si>
-    <t>Conn., Int. Off, Drivers On</t>
-  </si>
-  <si>
-    <t>Conn., Int. Off, Drivers Off</t>
-  </si>
-  <si>
-    <t>Adv., Int. Off, Drivers On</t>
-  </si>
-  <si>
-    <t>Adv., Int. Off, Drivers Off</t>
-  </si>
-  <si>
     <t>BLE conn. 1 Peripheral</t>
   </si>
   <si>
-    <t>Scan, Int. Off</t>
-  </si>
-  <si>
-    <t>Conn., Int. Off, Periph. 1</t>
-  </si>
-  <si>
-    <t>Conn., Int. Off, Periph. 8</t>
-  </si>
-  <si>
-    <t>Conn., Int. Off, Periph. 4</t>
-  </si>
-  <si>
-    <t>Conn., Int. On, Periph. 1</t>
-  </si>
-  <si>
-    <t>Conn., Int. On, Periph. 4</t>
-  </si>
-  <si>
-    <t>Conn., Int. On, Periph. 8</t>
-  </si>
-  <si>
     <t>BLE conn. 4 Peripheral</t>
   </si>
   <si>
     <t>BLE conn. 8 Peripheral</t>
   </si>
   <si>
-    <t>Scan, Int. On</t>
-  </si>
-  <si>
     <t>Scan Interval</t>
   </si>
   <si>
@@ -123,24 +78,6 @@
     <t>Interrupt Latency</t>
   </si>
   <si>
-    <t>Interrupt only</t>
-  </si>
-  <si>
-    <t>Interrupt with Timer</t>
-  </si>
-  <si>
-    <t>Int. with Timer and Drivers On</t>
-  </si>
-  <si>
-    <t>Interrupt with Drivers On</t>
-  </si>
-  <si>
-    <t>Power Consumption all Off</t>
-  </si>
-  <si>
-    <t>Power Consumption all On</t>
-  </si>
-  <si>
     <t>Conn. Event</t>
   </si>
   <si>
@@ -160,6 +97,54 @@
   </si>
   <si>
     <t>Conn. Event Interval</t>
+  </si>
+  <si>
+    <t>Power Cons. Sleep</t>
+  </si>
+  <si>
+    <t>Power Cons., Interrupt</t>
+  </si>
+  <si>
+    <t>Power Cons., Int.&amp;Timer</t>
+  </si>
+  <si>
+    <t>Power Cons., Int.,Timer&amp;Drivers</t>
+  </si>
+  <si>
+    <t>Advertising, Int.</t>
+  </si>
+  <si>
+    <t>Conn., Int.&amp;Drivers</t>
+  </si>
+  <si>
+    <t>Power cons., Adv. Only</t>
+  </si>
+  <si>
+    <t>Power cons., Conn. Only</t>
+  </si>
+  <si>
+    <t>Power cons., scan</t>
+  </si>
+  <si>
+    <t>Power cons. Conn. 1 Periph.</t>
+  </si>
+  <si>
+    <t>Power cons. Conn. 4 Periph.</t>
+  </si>
+  <si>
+    <t>Power cons. Conn. 8 Periph.</t>
+  </si>
+  <si>
+    <t>Scan, Int.</t>
+  </si>
+  <si>
+    <t>Conn. 1 Periph., Int.&amp;Drivers</t>
+  </si>
+  <si>
+    <t>Conn. 4 Periph., Int.&amp;Drivers</t>
+  </si>
+  <si>
+    <t>Conn. 8 Periph., Int.&amp;Drivers</t>
   </si>
 </sst>
 </file>
@@ -419,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +513,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20DC6F3-2D10-415D-B344-F5448D8316EF}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -854,25 +842,19 @@
     <col min="2" max="24" width="5.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="146.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="151.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2"/>
       <c r="B1" s="27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -884,13 +866,7 @@
       <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -903,11 +879,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -920,11 +892,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -934,12 +902,10 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -956,57 +922,36 @@
       <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -1016,22 +961,13 @@
       <c r="B11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="8"/>
@@ -1041,16 +977,11 @@
         <v>1</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="8"/>
@@ -1060,16 +991,9 @@
         <v>2</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="18"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="8"/>
@@ -1079,16 +1003,9 @@
         <v>3</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="8"/>
@@ -1098,16 +1015,11 @@
         <v>6</v>
       </c>
       <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="8"/>
@@ -1119,14 +1031,11 @@
       <c r="B16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="8"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1134,37 +1043,23 @@
         <v>8</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="42" t="s">
+      <c r="C17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="42" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="39" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B18" s="40"/>
-      <c r="C18" s="26"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="26" t="s">
+      <c r="E18" s="44" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="8"/>
@@ -1176,22 +1071,13 @@
       <c r="B19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="8"/>
@@ -1201,79 +1087,64 @@
         <v>9</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="6"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="119.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="14"/>
       <c r="B25" s="30" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -1349,7 +1220,7 @@
     </row>
     <row r="29" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>5</v>
@@ -1366,7 +1237,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
@@ -1383,7 +1254,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="25"/>
@@ -1400,7 +1271,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="23"/>
@@ -1417,7 +1288,7 @@
     </row>
     <row r="33" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="39" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="26"/>
@@ -1465,7 +1336,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="25"/>
@@ -1480,7 +1351,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="23"/>
@@ -1499,7 +1370,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="25"/>
@@ -1518,7 +1389,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="38"/>
@@ -1539,7 +1410,7 @@
     </row>
     <row r="44" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="43" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -1615,7 +1486,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="25" t="s">
@@ -1630,7 +1501,7 @@
     </row>
     <row r="52" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="43" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -1730,7 +1601,7 @@
     </row>
     <row r="60" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="39" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B60" s="40"/>
       <c r="C60" s="26"/>
@@ -1769,7 +1640,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="25"/>
@@ -1780,7 +1651,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="23"/>
@@ -1793,7 +1664,7 @@
     </row>
     <row r="76" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="43" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -1877,7 +1748,7 @@
     </row>
     <row r="80" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>5</v>
@@ -1894,7 +1765,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B81" s="18"/>
       <c r="C81" s="23" t="s">
@@ -1911,7 +1782,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="25"/>
@@ -1928,7 +1799,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="23"/>
@@ -1945,7 +1816,7 @@
     </row>
     <row r="84" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="39" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="26"/>
@@ -1993,7 +1864,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="25"/>
@@ -2008,7 +1879,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="23"/>
@@ -2027,7 +1898,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="25"/>
@@ -2046,7 +1917,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="38"/>
